--- a/data/raw_data/2024/permits-by-sector-2024.xlsx
+++ b/data/raw_data/2024/permits-by-sector-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naughtm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324F0BF-31ED-400C-8EFC-EBDCB3F3C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023BE6C-CCCD-4EAB-9236-57D3EBF0B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{74C81AF7-5B69-4F13-A885-75B1575035E9}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C81AF7-5B69-4F13-A885-75B1575035E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Grand Total</t>
   </si>
@@ -108,9 +106,6 @@
   </si>
   <si>
     <t>E - Water Supply - Sewerage Waste Management &amp; Rem</t>
-  </si>
-  <si>
-    <t>E - Water Supply Waste Management &amp; Remedial Activ</t>
   </si>
   <si>
     <t>F - Construction</t>
@@ -165,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,20 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F853E0B2-63F1-4751-95DB-7F34E24E5F12}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -659,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -703,7 +698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -747,7 +742,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -791,7 +786,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -835,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -879,7 +874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -923,7 +918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -967,7 +962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" s="9">
         <v>10</v>
@@ -1143,699 +1138,677 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+        <v>1523</v>
+      </c>
+      <c r="C13" s="9">
+        <v>96</v>
+      </c>
+      <c r="D13" s="9">
+        <v>87</v>
+      </c>
+      <c r="E13" s="9">
+        <v>79</v>
+      </c>
+      <c r="F13" s="9">
+        <v>133</v>
+      </c>
+      <c r="G13" s="9">
+        <v>148</v>
+      </c>
+      <c r="H13" s="9">
+        <v>120</v>
+      </c>
       <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="J13" s="9">
+        <v>138</v>
+      </c>
+      <c r="K13" s="9">
+        <v>128</v>
+      </c>
+      <c r="L13" s="9">
+        <v>123</v>
+      </c>
+      <c r="M13" s="9">
+        <v>140</v>
+      </c>
+      <c r="N13" s="9">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="11">
-        <v>1523</v>
+        <v>441</v>
       </c>
       <c r="C14" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F14" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G14" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="H14" s="9">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="I14" s="9">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="J14" s="9">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="K14" s="9">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="L14" s="9">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M14" s="9">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="N14" s="9">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="11">
-        <v>441</v>
+        <v>1282</v>
       </c>
       <c r="C15" s="9">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D15" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E15" s="9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F15" s="9">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="G15" s="9">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="H15" s="9">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="I15" s="9">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="J15" s="9">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="K15" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="L15" s="9">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="M15" s="9">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="N15" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="11">
-        <v>1282</v>
+        <v>3358</v>
       </c>
       <c r="C16" s="9">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="D16" s="9">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="E16" s="9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F16" s="9">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="G16" s="9">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="H16" s="9">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="I16" s="9">
-        <v>143</v>
+        <v>395</v>
       </c>
       <c r="J16" s="9">
-        <v>174</v>
+        <v>385</v>
       </c>
       <c r="K16" s="9">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="L16" s="9">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="M16" s="9">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="N16" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="11">
-        <v>3358</v>
+        <v>6788</v>
       </c>
       <c r="C17" s="9">
-        <v>226</v>
+        <v>592</v>
       </c>
       <c r="D17" s="9">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="E17" s="9">
-        <v>131</v>
+        <v>601</v>
       </c>
       <c r="F17" s="9">
-        <v>291</v>
+        <v>663</v>
       </c>
       <c r="G17" s="9">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="H17" s="9">
-        <v>188</v>
+        <v>541</v>
       </c>
       <c r="I17" s="9">
-        <v>395</v>
+        <v>753</v>
       </c>
       <c r="J17" s="9">
-        <v>385</v>
+        <v>594</v>
       </c>
       <c r="K17" s="9">
-        <v>254</v>
+        <v>538</v>
       </c>
       <c r="L17" s="9">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="M17" s="9">
-        <v>297</v>
+        <v>572</v>
       </c>
       <c r="N17" s="9">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="11">
-        <v>6788</v>
+        <v>2318</v>
       </c>
       <c r="C18" s="9">
-        <v>592</v>
+        <v>162</v>
       </c>
       <c r="D18" s="9">
-        <v>511</v>
+        <v>149</v>
       </c>
       <c r="E18" s="9">
-        <v>601</v>
+        <v>235</v>
       </c>
       <c r="F18" s="9">
-        <v>663</v>
+        <v>182</v>
       </c>
       <c r="G18" s="9">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="H18" s="9">
-        <v>541</v>
+        <v>167</v>
       </c>
       <c r="I18" s="9">
-        <v>753</v>
+        <v>245</v>
       </c>
       <c r="J18" s="9">
-        <v>594</v>
+        <v>237</v>
       </c>
       <c r="K18" s="9">
-        <v>538</v>
+        <v>227</v>
       </c>
       <c r="L18" s="9">
-        <v>472</v>
+        <v>192</v>
       </c>
       <c r="M18" s="9">
-        <v>572</v>
+        <v>211</v>
       </c>
       <c r="N18" s="9">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="11">
-        <v>2318</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="E19" s="9">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="F19" s="9">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="G19" s="9">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="I19" s="9">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="J19" s="9">
-        <v>237</v>
-      </c>
-      <c r="K19" s="9">
-        <v>227</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" s="10"/>
       <c r="L19" s="9">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="M19" s="9">
-        <v>211</v>
-      </c>
-      <c r="N19" s="9">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="11">
-        <v>24</v>
+        <v>806</v>
       </c>
       <c r="C20" s="9">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D20" s="9">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E20" s="9">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="F20" s="9">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H20" s="9">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="K20" s="9">
+        <v>43</v>
+      </c>
       <c r="L20" s="9">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="M20" s="9">
-        <v>4</v>
-      </c>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N20" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="11">
-        <v>806</v>
+        <v>286</v>
       </c>
       <c r="C21" s="9">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D21" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E21" s="9">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F21" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="G21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H21" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="J21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K21" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L21" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M21" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N21" s="9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="11">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="C22" s="9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D22" s="9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" s="9">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F22" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G22" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I22" s="9">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J22" s="9">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K22" s="9">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L22" s="9">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="M22" s="9">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="N22" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="11">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9">
         <v>5</v>
       </c>
-      <c r="D23" s="9">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9">
-        <v>6</v>
-      </c>
-      <c r="F23" s="9">
-        <v>8</v>
-      </c>
-      <c r="G23" s="9">
-        <v>10</v>
-      </c>
-      <c r="H23" s="9">
-        <v>7</v>
-      </c>
-      <c r="I23" s="9">
-        <v>7</v>
-      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K23" s="9">
+        <v>2</v>
+      </c>
+      <c r="L23" s="9">
         <v>4</v>
       </c>
-      <c r="L23" s="9">
-        <v>9</v>
-      </c>
       <c r="M23" s="9">
-        <v>6</v>
-      </c>
-      <c r="N23" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="11">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D24" s="9">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E24" s="9">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="G24" s="9">
+        <v>20</v>
+      </c>
+      <c r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9">
+        <v>26</v>
+      </c>
       <c r="J24" s="9">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="K24" s="9">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L24" s="9">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M24" s="9">
-        <v>4</v>
-      </c>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="N24" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="11">
-        <v>357</v>
+        <v>12501</v>
       </c>
       <c r="C25" s="9">
-        <v>22</v>
+        <v>1431</v>
       </c>
       <c r="D25" s="9">
-        <v>38</v>
+        <v>1089</v>
       </c>
       <c r="E25" s="9">
-        <v>17</v>
+        <v>1211</v>
       </c>
       <c r="F25" s="9">
-        <v>30</v>
+        <v>1145</v>
       </c>
       <c r="G25" s="9">
-        <v>20</v>
+        <v>872</v>
       </c>
       <c r="H25" s="9">
-        <v>22</v>
+        <v>1056</v>
       </c>
       <c r="I25" s="9">
-        <v>26</v>
+        <v>1476</v>
       </c>
       <c r="J25" s="9">
-        <v>43</v>
+        <v>843</v>
       </c>
       <c r="K25" s="9">
-        <v>32</v>
+        <v>777</v>
       </c>
       <c r="L25" s="9">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="M25" s="9">
-        <v>37</v>
+        <v>1042</v>
       </c>
       <c r="N25" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="11">
-        <v>12501</v>
+        <v>586</v>
       </c>
       <c r="C26" s="9">
-        <v>1431</v>
+        <v>18</v>
       </c>
       <c r="D26" s="9">
-        <v>1089</v>
+        <v>44</v>
       </c>
       <c r="E26" s="9">
-        <v>1211</v>
+        <v>39</v>
       </c>
       <c r="F26" s="9">
-        <v>1145</v>
+        <v>79</v>
       </c>
       <c r="G26" s="9">
-        <v>872</v>
+        <v>51</v>
       </c>
       <c r="H26" s="9">
-        <v>1056</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9">
-        <v>1476</v>
+        <v>85</v>
       </c>
       <c r="J26" s="9">
-        <v>843</v>
+        <v>33</v>
       </c>
       <c r="K26" s="9">
-        <v>777</v>
+        <v>60</v>
       </c>
       <c r="L26" s="9">
-        <v>751</v>
+        <v>39</v>
       </c>
       <c r="M26" s="9">
-        <v>1042</v>
+        <v>62</v>
       </c>
       <c r="N26" s="9">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="11">
-        <v>586</v>
+        <v>1772</v>
       </c>
       <c r="C27" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D27" s="9">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E27" s="9">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F27" s="9">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G27" s="9">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="H27" s="9">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I27" s="9">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="J27" s="9">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="K27" s="9">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="L27" s="9">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="M27" s="9">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="N27" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="11">
-        <v>1772</v>
-      </c>
-      <c r="C28" s="9">
-        <v>113</v>
-      </c>
-      <c r="D28" s="9">
-        <v>115</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="9">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F28" s="9">
-        <v>140</v>
-      </c>
-      <c r="G28" s="9">
-        <v>117</v>
-      </c>
-      <c r="H28" s="9">
-        <v>104</v>
-      </c>
-      <c r="I28" s="9">
-        <v>237</v>
-      </c>
-      <c r="J28" s="9">
-        <v>204</v>
-      </c>
-      <c r="K28" s="9">
-        <v>119</v>
-      </c>
-      <c r="L28" s="9">
-        <v>180</v>
-      </c>
-      <c r="M28" s="9">
-        <v>178</v>
-      </c>
-      <c r="N28" s="9">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="11">
-        <v>3</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9">
         <v>1</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1882,15 +1855,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="163" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="85309ccccff480a81818d539d3482032">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3659751ca266c6383aa8c59766733bc" ns2:_="">
     <xsd:import namespace="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
@@ -2099,6 +2063,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D697723F-E78C-40F8-9002-85E5F4650CC4}">
   <ds:schemaRefs>
@@ -2116,14 +2089,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57751F22-F6C4-4CE1-A36D-9028ECEEAB25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB11D052-EE46-44EC-9AD6-2841AD2F0593}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2139,4 +2104,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57751F22-F6C4-4CE1-A36D-9028ECEEAB25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>